--- a/data/trans_dic/P19C08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,13; 1,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,26; 1,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,2; 2,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +744,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,21; 1,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,09; 1,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,08; 0,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,24; 0,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,21; 1,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,19; 1,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,05; 0,46</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,0; 0,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,28; 1,15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,12</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,34; 1,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,19; 0,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0,44; 1,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,0; 0,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,17; 0,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,11; 0,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,44; 1,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,0; 0,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,3; 0,8</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,4; 2,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,21; 1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,08; 1,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,24; 2,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,32; 1,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,43; 1,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,22; 1,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,1; 1,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,27; 1,2</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,19; 0,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,36; 1,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,04; 0,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,28; 0,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,33; 0,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,37; 0,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,08; 0,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,25; 0,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,29; 0,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>0,42; 0,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,08; 0,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>0,3; 0,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Estudios-trans_dic.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,15%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,66</t>
+          <t>0,07; 0,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,46</t>
+          <t>0,04; 0,43</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,44%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,36</t>
+          <t>0,3; 1,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,65</t>
+          <t>0,15; 0,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,8</t>
+          <t>0,25; 0,74</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,1</t>
+          <t>0,08; 0,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,96</t>
+          <t>0,31; 1,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,2</t>
+          <t>0,26; 1,14</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,27 +1111,27 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>0,41%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,87</t>
+          <t>0,24; 0,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,67</t>
+          <t>0,22; 0,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,68</t>
+          <t>0,27; 0,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,15</t>
+          <t>0,14; 1,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,93</t>
+          <t>0,26; 1,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,07</t>
+          <t>0,2; 2,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,12 +745,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,27</t>
+          <t>0,22; 1,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,13</t>
+          <t>0,09; 1,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +760,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,62</t>
+          <t>0,07; 0,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,96</t>
+          <t>0,24; 0,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,05</t>
+          <t>0,21; 1,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,08</t>
+          <t>0,19; 1,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,43</t>
+          <t>0,04; 0,36</t>
         </is>
       </c>
     </row>
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,15</t>
+          <t>0,24; 1,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,31</t>
+          <t>0,29; 1,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,98</t>
+          <t>0,2; 0,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,33</t>
+          <t>0,48; 1,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,55</t>
+          <t>0,15; 0,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,56</t>
+          <t>0,13; 0,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,07</t>
+          <t>0,42; 1,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,74</t>
+          <t>0,26; 0,76</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1005,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,27</t>
+          <t>0,39; 2,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,72</t>
+          <t>0,21; 1,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 1,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,94</t>
+          <t>0,08; 0,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,27</t>
+          <t>0,24; 2,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,32 +1035,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,84</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,91</t>
+          <t>0,29; 1,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,66</t>
+          <t>0,4; 1,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,29</t>
+          <t>0,22; 1,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,03</t>
+          <t>0,1; 0,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,14</t>
+          <t>0,28; 1,18</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1145,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,68</t>
+          <t>0,15; 0,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,02</t>
+          <t>0,36; 1,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,41</t>
+          <t>0,04; 0,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,81</t>
+          <t>0,23; 0,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,87</t>
+          <t>0,28; 0,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,95</t>
+          <t>0,38; 0,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1180,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,61</t>
+          <t>0,23; 0,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,68</t>
+          <t>0,29; 0,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,85</t>
+          <t>0,43; 0,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,34</t>
+          <t>0,1; 0,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,63</t>
+          <t>0,27; 0,61</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por selladores, aplicación de fluor</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2852</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5896</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3086</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5220</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3920</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2365</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8072</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9817</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5451</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>935; 7616</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2009; 13526</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>914; 9426</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1433</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2076; 12170</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>981; 11936</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8252</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>532; 4424</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3945; 15479</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3964; 20124</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2062; 11933</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>532; 4374</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9100</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13038</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6516</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13007</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6558</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7481</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22107</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19596</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4863</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3971; 19360</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2036</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6357; 25813</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2792; 13478</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7678; 22003</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5602</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3220; 11757</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3478; 15600</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13849; 33887</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4859</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11579; 33440</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3047</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3075</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2592</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5207</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7624</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3629</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7154</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1764; 9153</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>923; 8705</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5241</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>481; 6010</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>975; 8367</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6689</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8815</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1889; 11705</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3477; 13982</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1898; 10694</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1041; 9998</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3573; 15083</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8367</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18043</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14985</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14810</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18832</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5926</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13529</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23177</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>36875</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10049</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28514</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3726; 15823</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10517; 29275</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1032; 10341</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7696; 27548</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7794; 24415</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11863; 28812</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2258; 13574</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8370; 21546</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14889; 34083</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>26214; 53844</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5325; 19489</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18575; 42469</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>